--- a/team_specific_matrix/Chattanooga_B.xlsx
+++ b/team_specific_matrix/Chattanooga_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2405063291139241</v>
+        <v>0.2423076923076923</v>
       </c>
       <c r="C2">
-        <v>0.459915611814346</v>
+        <v>0.4576923076923077</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01687763713080169</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1814345991561181</v>
+        <v>0.1769230769230769</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1012658227848101</v>
+        <v>0.1038461538461539</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.05405405405405406</v>
+        <v>0.04958677685950413</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6936936936936937</v>
+        <v>0.7024793388429752</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2522522522522522</v>
+        <v>0.2479338842975207</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02127659574468085</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6382978723404256</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3404255319148936</v>
+        <v>0.3076923076923077</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.09625668449197861</v>
+        <v>0.08411214953271028</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0106951871657754</v>
+        <v>0.009345794392523364</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.106951871657754</v>
+        <v>0.102803738317757</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1497326203208556</v>
+        <v>0.1635514018691589</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0106951871657754</v>
+        <v>0.01401869158878505</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.2085561497326203</v>
+        <v>0.2196261682242991</v>
       </c>
       <c r="R6">
-        <v>0.053475935828877</v>
+        <v>0.0514018691588785</v>
       </c>
       <c r="S6">
-        <v>0.3636363636363636</v>
+        <v>0.3551401869158878</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.0896551724137931</v>
+        <v>0.0963855421686747</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.04137931034482759</v>
+        <v>0.04216867469879518</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.103448275862069</v>
+        <v>0.1024096385542169</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1103448275862069</v>
+        <v>0.1144578313253012</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -838,13 +838,13 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1517241379310345</v>
+        <v>0.1566265060240964</v>
       </c>
       <c r="R7">
-        <v>0.1379310344827586</v>
+        <v>0.1325301204819277</v>
       </c>
       <c r="S7">
-        <v>0.3655172413793104</v>
+        <v>0.3554216867469879</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.07736389684813753</v>
+        <v>0.07304785894206549</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01146131805157593</v>
+        <v>0.01007556675062972</v>
       </c>
       <c r="E8">
-        <v>0.002865329512893983</v>
+        <v>0.002518891687657431</v>
       </c>
       <c r="F8">
-        <v>0.04871060171919771</v>
+        <v>0.04785894206549118</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1260744985673352</v>
+        <v>0.1209068010075567</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.008595988538681949</v>
+        <v>0.01259445843828715</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.160458452722063</v>
+        <v>0.1511335012594459</v>
       </c>
       <c r="R8">
-        <v>0.1318051575931232</v>
+        <v>0.1360201511335013</v>
       </c>
       <c r="S8">
-        <v>0.4326647564469914</v>
+        <v>0.4458438287153653</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09583333333333334</v>
+        <v>0.09259259259259259</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02083333333333333</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="E9">
-        <v>0.004166666666666667</v>
+        <v>0.003703703703703704</v>
       </c>
       <c r="F9">
-        <v>0.0625</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1083333333333333</v>
+        <v>0.1222222222222222</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.0125</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1583333333333333</v>
+        <v>0.1592592592592593</v>
       </c>
       <c r="R9">
-        <v>0.09583333333333334</v>
+        <v>0.09259259259259259</v>
       </c>
       <c r="S9">
-        <v>0.4416666666666667</v>
+        <v>0.4259259259259259</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09579667644183773</v>
+        <v>0.0947002606429192</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02834799608993157</v>
+        <v>0.02780191138140747</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.06842619745845552</v>
+        <v>0.07037358818418767</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1221896383186706</v>
+        <v>0.1181581233709817</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01075268817204301</v>
+        <v>0.01216333622936577</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1827956989247312</v>
+        <v>0.1798436142484796</v>
       </c>
       <c r="R10">
-        <v>0.09872922776148582</v>
+        <v>0.0999131190269331</v>
       </c>
       <c r="S10">
-        <v>0.3929618768328446</v>
+        <v>0.3970460469157255</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1345291479820628</v>
+        <v>0.14</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1076233183856502</v>
+        <v>0.096</v>
       </c>
       <c r="K11">
-        <v>0.1838565022421525</v>
+        <v>0.184</v>
       </c>
       <c r="L11">
-        <v>0.5650224215246636</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.008968609865470852</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.8062015503875969</v>
+        <v>0.8287671232876712</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1085271317829457</v>
+        <v>0.0958904109589041</v>
       </c>
       <c r="K12">
-        <v>0.007751937984496124</v>
+        <v>0.00684931506849315</v>
       </c>
       <c r="L12">
-        <v>0.03875968992248062</v>
+        <v>0.03424657534246575</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03875968992248062</v>
+        <v>0.03424657534246575</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5666666666666667</v>
+        <v>0.5806451612903226</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3</v>
+        <v>0.2903225806451613</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.1333333333333333</v>
+        <v>0.1290322580645161</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02424242424242424</v>
+        <v>0.02</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.2181818181818182</v>
+        <v>0.195</v>
       </c>
       <c r="I15">
-        <v>0.06666666666666667</v>
+        <v>0.065</v>
       </c>
       <c r="J15">
-        <v>0.3878787878787879</v>
+        <v>0.38</v>
       </c>
       <c r="K15">
-        <v>0.06060606060606061</v>
+        <v>0.065</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01212121212121212</v>
+        <v>0.015</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.09090909090909091</v>
+        <v>0.1</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.1393939393939394</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.006993006993006993</v>
+        <v>0.006329113924050633</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1608391608391608</v>
+        <v>0.1518987341772152</v>
       </c>
       <c r="I16">
-        <v>0.1678321678321678</v>
+        <v>0.1708860759493671</v>
       </c>
       <c r="J16">
-        <v>0.3636363636363636</v>
+        <v>0.3670886075949367</v>
       </c>
       <c r="K16">
-        <v>0.1048951048951049</v>
+        <v>0.1139240506329114</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01398601398601399</v>
+        <v>0.01265822784810127</v>
       </c>
       <c r="N16">
-        <v>0.006993006993006993</v>
+        <v>0.006329113924050633</v>
       </c>
       <c r="O16">
-        <v>0.04195804195804196</v>
+        <v>0.04430379746835443</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1328671328671329</v>
+        <v>0.1265822784810127</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01466275659824047</v>
+        <v>0.01574803149606299</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1671554252199413</v>
+        <v>0.1706036745406824</v>
       </c>
       <c r="I17">
-        <v>0.1642228739002932</v>
+        <v>0.1601049868766404</v>
       </c>
       <c r="J17">
-        <v>0.4193548387096774</v>
+        <v>0.4120734908136483</v>
       </c>
       <c r="K17">
-        <v>0.09970674486803519</v>
+        <v>0.09711286089238845</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.008797653958944282</v>
+        <v>0.007874015748031496</v>
       </c>
       <c r="N17">
-        <v>0.002932551319648094</v>
+        <v>0.002624671916010499</v>
       </c>
       <c r="O17">
-        <v>0.06451612903225806</v>
+        <v>0.07349081364829396</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.05865102639296188</v>
+        <v>0.06036745406824147</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02512562814070352</v>
+        <v>0.02212389380530973</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1457286432160804</v>
+        <v>0.1460176991150443</v>
       </c>
       <c r="I18">
-        <v>0.1256281407035176</v>
+        <v>0.1194690265486726</v>
       </c>
       <c r="J18">
-        <v>0.3919597989949749</v>
+        <v>0.415929203539823</v>
       </c>
       <c r="K18">
-        <v>0.07035175879396985</v>
+        <v>0.07079646017699115</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01507537688442211</v>
+        <v>0.01327433628318584</v>
       </c>
       <c r="N18">
-        <v>0.01507537688442211</v>
+        <v>0.01327433628318584</v>
       </c>
       <c r="O18">
-        <v>0.08542713567839195</v>
+        <v>0.0752212389380531</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1256281407035176</v>
+        <v>0.1238938053097345</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01239275500476644</v>
+        <v>0.01263689974726201</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2001906577693041</v>
+        <v>0.2030328559393429</v>
       </c>
       <c r="I19">
-        <v>0.119161105815062</v>
+        <v>0.1213142375737152</v>
       </c>
       <c r="J19">
-        <v>0.3755958055290753</v>
+        <v>0.3706823925863522</v>
       </c>
       <c r="K19">
-        <v>0.1010486177311725</v>
+        <v>0.09856781802864364</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01906577693040992</v>
+        <v>0.01684919966301601</v>
       </c>
       <c r="N19">
-        <v>0.0009532888465204957</v>
+        <v>0.001684919966301601</v>
       </c>
       <c r="O19">
-        <v>0.06196377502383222</v>
+        <v>0.06571187868576242</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.109628217349857</v>
+        <v>0.109519797809604</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Chattanooga_B.xlsx
+++ b/team_specific_matrix/Chattanooga_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2423076923076923</v>
+        <v>0.2384341637010676</v>
       </c>
       <c r="C2">
-        <v>0.4576923076923077</v>
+        <v>0.4697508896797153</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01923076923076923</v>
+        <v>0.01779359430604982</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1769230769230769</v>
+        <v>0.1779359430604982</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1038461538461539</v>
+        <v>0.09608540925266904</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04958677685950413</v>
+        <v>0.04477611940298507</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7024793388429752</v>
+        <v>0.7238805970149254</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2479338842975207</v>
+        <v>0.2313432835820896</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.03846153846153846</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6538461538461539</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3076923076923077</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.08411214953271028</v>
+        <v>0.08016877637130802</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.009345794392523364</v>
+        <v>0.008438818565400843</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.102803738317757</v>
+        <v>0.09282700421940929</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1635514018691589</v>
+        <v>0.1940928270042194</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01401869158878505</v>
+        <v>0.01265822784810127</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.2196261682242991</v>
+        <v>0.2151898734177215</v>
       </c>
       <c r="R6">
-        <v>0.0514018691588785</v>
+        <v>0.04641350210970464</v>
       </c>
       <c r="S6">
-        <v>0.3551401869158878</v>
+        <v>0.350210970464135</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.0963855421686747</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.04216867469879518</v>
+        <v>0.0374331550802139</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.1024096385542169</v>
+        <v>0.106951871657754</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1144578313253012</v>
+        <v>0.1229946524064171</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -838,13 +838,13 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1566265060240964</v>
+        <v>0.1711229946524064</v>
       </c>
       <c r="R7">
-        <v>0.1325301204819277</v>
+        <v>0.1283422459893048</v>
       </c>
       <c r="S7">
-        <v>0.3554216867469879</v>
+        <v>0.3422459893048128</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.07304785894206549</v>
+        <v>0.07175925925925926</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01007556675062972</v>
+        <v>0.009259259259259259</v>
       </c>
       <c r="E8">
-        <v>0.002518891687657431</v>
+        <v>0.002314814814814815</v>
       </c>
       <c r="F8">
-        <v>0.04785894206549118</v>
+        <v>0.05092592592592592</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1209068010075567</v>
+        <v>0.1226851851851852</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01259445843828715</v>
+        <v>0.01157407407407407</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1511335012594459</v>
+        <v>0.150462962962963</v>
       </c>
       <c r="R8">
-        <v>0.1360201511335013</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S8">
-        <v>0.4458438287153653</v>
+        <v>0.4421296296296297</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09259259259259259</v>
+        <v>0.08389261744966443</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01851851851851852</v>
+        <v>0.02013422818791946</v>
       </c>
       <c r="E9">
-        <v>0.003703703703703704</v>
+        <v>0.003355704697986577</v>
       </c>
       <c r="F9">
-        <v>0.06666666666666667</v>
+        <v>0.06375838926174497</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1222222222222222</v>
+        <v>0.1241610738255034</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01851851851851852</v>
+        <v>0.02013422818791946</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1592592592592593</v>
+        <v>0.1644295302013423</v>
       </c>
       <c r="R9">
-        <v>0.09259259259259259</v>
+        <v>0.1006711409395973</v>
       </c>
       <c r="S9">
-        <v>0.4259259259259259</v>
+        <v>0.4194630872483222</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.0947002606429192</v>
+        <v>0.09501557632398754</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02780191138140747</v>
+        <v>0.02725856697819315</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.07037358818418767</v>
+        <v>0.06853582554517133</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1181581233709817</v>
+        <v>0.1168224299065421</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01216333622936577</v>
+        <v>0.0132398753894081</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1798436142484796</v>
+        <v>0.1853582554517134</v>
       </c>
       <c r="R10">
-        <v>0.0999131190269331</v>
+        <v>0.1004672897196262</v>
       </c>
       <c r="S10">
-        <v>0.3970460469157255</v>
+        <v>0.3933021806853583</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.14</v>
+        <v>0.1362007168458781</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.096</v>
+        <v>0.1003584229390681</v>
       </c>
       <c r="K11">
-        <v>0.184</v>
+        <v>0.1863799283154122</v>
       </c>
       <c r="L11">
-        <v>0.5679999999999999</v>
+        <v>0.5663082437275986</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.012</v>
+        <v>0.01075268817204301</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.8287671232876712</v>
+        <v>0.8343558282208589</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.0958904109589041</v>
+        <v>0.09202453987730061</v>
       </c>
       <c r="K12">
-        <v>0.00684931506849315</v>
+        <v>0.006134969325153374</v>
       </c>
       <c r="L12">
-        <v>0.03424657534246575</v>
+        <v>0.03067484662576687</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03424657534246575</v>
+        <v>0.03680981595092025</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5806451612903226</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2903225806451613</v>
+        <v>0.2571428571428571</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.1290322580645161</v>
+        <v>0.1142857142857143</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.195</v>
+        <v>0.1785714285714286</v>
       </c>
       <c r="I15">
-        <v>0.065</v>
+        <v>0.0625</v>
       </c>
       <c r="J15">
-        <v>0.38</v>
+        <v>0.3839285714285715</v>
       </c>
       <c r="K15">
-        <v>0.065</v>
+        <v>0.05803571428571429</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.015</v>
+        <v>0.01339285714285714</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.1</v>
+        <v>0.1071428571428571</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.16</v>
+        <v>0.1785714285714286</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.006329113924050633</v>
+        <v>0.005649717514124294</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1518987341772152</v>
+        <v>0.1525423728813559</v>
       </c>
       <c r="I16">
-        <v>0.1708860759493671</v>
+        <v>0.1638418079096045</v>
       </c>
       <c r="J16">
-        <v>0.3670886075949367</v>
+        <v>0.3898305084745763</v>
       </c>
       <c r="K16">
-        <v>0.1139240506329114</v>
+        <v>0.1073446327683616</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01265822784810127</v>
+        <v>0.01129943502824859</v>
       </c>
       <c r="N16">
-        <v>0.006329113924050633</v>
+        <v>0.005649717514124294</v>
       </c>
       <c r="O16">
-        <v>0.04430379746835443</v>
+        <v>0.04519774011299435</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1265822784810127</v>
+        <v>0.1186440677966102</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01574803149606299</v>
+        <v>0.01624129930394431</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1706036745406824</v>
+        <v>0.1624129930394431</v>
       </c>
       <c r="I17">
-        <v>0.1601049868766404</v>
+        <v>0.1554524361948956</v>
       </c>
       <c r="J17">
-        <v>0.4120734908136483</v>
+        <v>0.4129930394431555</v>
       </c>
       <c r="K17">
-        <v>0.09711286089238845</v>
+        <v>0.1020881670533643</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.007874015748031496</v>
+        <v>0.009280742459396751</v>
       </c>
       <c r="N17">
-        <v>0.002624671916010499</v>
+        <v>0.002320185614849188</v>
       </c>
       <c r="O17">
-        <v>0.07349081364829396</v>
+        <v>0.07192575406032482</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.06036745406824147</v>
+        <v>0.06728538283062645</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02212389380530973</v>
+        <v>0.02371541501976284</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1460176991150443</v>
+        <v>0.150197628458498</v>
       </c>
       <c r="I18">
-        <v>0.1194690265486726</v>
+        <v>0.1146245059288538</v>
       </c>
       <c r="J18">
-        <v>0.415929203539823</v>
+        <v>0.4150197628458498</v>
       </c>
       <c r="K18">
-        <v>0.07079646017699115</v>
+        <v>0.08300395256916997</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01327433628318584</v>
+        <v>0.01185770750988142</v>
       </c>
       <c r="N18">
-        <v>0.01327433628318584</v>
+        <v>0.01185770750988142</v>
       </c>
       <c r="O18">
-        <v>0.0752212389380531</v>
+        <v>0.06719367588932806</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1238938053097345</v>
+        <v>0.1225296442687747</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01263689974726201</v>
+        <v>0.01452599388379205</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2030328559393429</v>
+        <v>0.2010703363914373</v>
       </c>
       <c r="I19">
-        <v>0.1213142375737152</v>
+        <v>0.1230886850152905</v>
       </c>
       <c r="J19">
-        <v>0.3706823925863522</v>
+        <v>0.3654434250764526</v>
       </c>
       <c r="K19">
-        <v>0.09856781802864364</v>
+        <v>0.09709480122324159</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01684919966301601</v>
+        <v>0.01758409785932722</v>
       </c>
       <c r="N19">
-        <v>0.001684919966301601</v>
+        <v>0.001529051987767584</v>
       </c>
       <c r="O19">
-        <v>0.06571187868576242</v>
+        <v>0.06651376146788991</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.109519797809604</v>
+        <v>0.1131498470948012</v>
       </c>
     </row>
   </sheetData>
